--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ccl12-Ccr10.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ccl12-Ccr10.xlsx
@@ -546,10 +546,10 @@
         <v>0.846464</v>
       </c>
       <c r="I2">
-        <v>0.003251136722938652</v>
+        <v>0.005723000769734084</v>
       </c>
       <c r="J2">
-        <v>0.003251136722938651</v>
+        <v>0.005723000769734084</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,28 +558,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.7301516666666666</v>
+        <v>0.478362</v>
       </c>
       <c r="N2">
-        <v>2.190455</v>
+        <v>1.435086</v>
       </c>
       <c r="O2">
-        <v>0.7431074981952006</v>
+        <v>0.6533545125880439</v>
       </c>
       <c r="P2">
-        <v>0.7431074981952006</v>
+        <v>0.6533545125880439</v>
       </c>
       <c r="Q2">
-        <v>0.2060157001244444</v>
+        <v>0.134972070656</v>
       </c>
       <c r="R2">
-        <v>1.85414130112</v>
+        <v>1.214748635904</v>
       </c>
       <c r="S2">
-        <v>0.002415944076473484</v>
+        <v>0.003739148378450613</v>
       </c>
       <c r="T2">
-        <v>0.002415944076473484</v>
+        <v>0.003739148378450613</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,10 +608,10 @@
         <v>0.846464</v>
       </c>
       <c r="I3">
-        <v>0.003251136722938652</v>
+        <v>0.005723000769734084</v>
       </c>
       <c r="J3">
-        <v>0.003251136722938651</v>
+        <v>0.005723000769734084</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,10 +626,10 @@
         <v>0.466686</v>
       </c>
       <c r="O3">
-        <v>0.1583222964647644</v>
+        <v>0.2124690813384451</v>
       </c>
       <c r="P3">
-        <v>0.1583222964647643</v>
+        <v>0.2124690813384451</v>
       </c>
       <c r="Q3">
         <v>0.043892544256</v>
@@ -638,10 +638,10 @@
         <v>0.395032898304</v>
       </c>
       <c r="S3">
-        <v>0.0005147274320965757</v>
+        <v>0.001215960716044615</v>
       </c>
       <c r="T3">
-        <v>0.0005147274320965755</v>
+        <v>0.001215960716044615</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,10 +670,10 @@
         <v>0.846464</v>
       </c>
       <c r="I4">
-        <v>0.003251136722938652</v>
+        <v>0.005723000769734084</v>
       </c>
       <c r="J4">
-        <v>0.003251136722938651</v>
+        <v>0.005723000769734084</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,28 +682,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.09685166666666667</v>
+        <v>0.09823900000000001</v>
       </c>
       <c r="N4">
-        <v>0.290555</v>
+        <v>0.294717</v>
       </c>
       <c r="O4">
-        <v>0.09857020534003508</v>
+        <v>0.134176406073511</v>
       </c>
       <c r="P4">
-        <v>0.09857020534003506</v>
+        <v>0.1341764060735109</v>
       </c>
       <c r="Q4">
-        <v>0.02732714972444444</v>
+        <v>0.02771859229866667</v>
       </c>
       <c r="R4">
-        <v>0.24594434752</v>
+        <v>0.249467330688</v>
       </c>
       <c r="S4">
-        <v>0.0003204652143685916</v>
+        <v>0.0007678916752388564</v>
       </c>
       <c r="T4">
-        <v>0.0003204652143685915</v>
+        <v>0.0007678916752388562</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>55.96940366666666</v>
+        <v>30.199365</v>
       </c>
       <c r="H5">
-        <v>167.908211</v>
+        <v>90.598095</v>
       </c>
       <c r="I5">
-        <v>0.6449093533393406</v>
+        <v>0.6125398923302606</v>
       </c>
       <c r="J5">
-        <v>0.6449093533393405</v>
+        <v>0.6125398923302606</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.7301516666666666</v>
+        <v>0.478362</v>
       </c>
       <c r="N5">
-        <v>2.190455</v>
+        <v>1.435086</v>
       </c>
       <c r="O5">
-        <v>0.7431074981952006</v>
+        <v>0.6533545125880439</v>
       </c>
       <c r="P5">
-        <v>0.7431074981952006</v>
+        <v>0.6533545125880439</v>
       </c>
       <c r="Q5">
-        <v>40.86615336955611</v>
+        <v>14.44622864013</v>
       </c>
       <c r="R5">
-        <v>367.795380326005</v>
+        <v>130.01605776117</v>
       </c>
       <c r="S5">
-        <v>0.4792369761226821</v>
+        <v>0.4002057027941703</v>
       </c>
       <c r="T5">
-        <v>0.479236976122682</v>
+        <v>0.4002057027941703</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>55.96940366666666</v>
+        <v>30.199365</v>
       </c>
       <c r="H6">
-        <v>167.908211</v>
+        <v>90.598095</v>
       </c>
       <c r="I6">
-        <v>0.6449093533393406</v>
+        <v>0.6125398923302606</v>
       </c>
       <c r="J6">
-        <v>0.6449093533393405</v>
+        <v>0.6125398923302606</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -812,22 +812,22 @@
         <v>0.466686</v>
       </c>
       <c r="O6">
-        <v>0.1583222964647644</v>
+        <v>0.2124690813384451</v>
       </c>
       <c r="P6">
-        <v>0.1583222964647643</v>
+        <v>0.2124690813384451</v>
       </c>
       <c r="Q6">
-        <v>8.706712373194</v>
+        <v>4.69787361813</v>
       </c>
       <c r="R6">
-        <v>78.36041135874599</v>
+        <v>42.28086256317</v>
       </c>
       <c r="S6">
-        <v>0.1021035298322906</v>
+        <v>0.1301457882065606</v>
       </c>
       <c r="T6">
-        <v>0.1021035298322905</v>
+        <v>0.1301457882065606</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>55.96940366666666</v>
+        <v>30.199365</v>
       </c>
       <c r="H7">
-        <v>167.908211</v>
+        <v>90.598095</v>
       </c>
       <c r="I7">
-        <v>0.6449093533393406</v>
+        <v>0.6125398923302606</v>
       </c>
       <c r="J7">
-        <v>0.6449093533393405</v>
+        <v>0.6125398923302606</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -868,28 +868,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.09685166666666667</v>
+        <v>0.09823900000000001</v>
       </c>
       <c r="N7">
-        <v>0.290555</v>
+        <v>0.294717</v>
       </c>
       <c r="O7">
-        <v>0.09857020534003508</v>
+        <v>0.134176406073511</v>
       </c>
       <c r="P7">
-        <v>0.09857020534003506</v>
+        <v>0.1341764060735109</v>
       </c>
       <c r="Q7">
-        <v>5.420730027456111</v>
+        <v>2.966755418235</v>
       </c>
       <c r="R7">
-        <v>48.786570247105</v>
+        <v>26.700798764115</v>
       </c>
       <c r="S7">
-        <v>0.06356884738436805</v>
+        <v>0.08218840132952974</v>
       </c>
       <c r="T7">
-        <v>0.06356884738436802</v>
+        <v>0.08218840132952972</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>30.53490766666667</v>
+        <v>18.820355</v>
       </c>
       <c r="H8">
-        <v>91.60472300000001</v>
+        <v>56.461065</v>
       </c>
       <c r="I8">
-        <v>0.3518395099377208</v>
+        <v>0.3817371069000054</v>
       </c>
       <c r="J8">
-        <v>0.3518395099377208</v>
+        <v>0.3817371069000054</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -930,28 +930,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.7301516666666666</v>
+        <v>0.478362</v>
       </c>
       <c r="N8">
-        <v>2.190455</v>
+        <v>1.435086</v>
       </c>
       <c r="O8">
-        <v>0.7431074981952006</v>
+        <v>0.6533545125880439</v>
       </c>
       <c r="P8">
-        <v>0.7431074981952006</v>
+        <v>0.6533545125880439</v>
       </c>
       <c r="Q8">
-        <v>22.29511372432945</v>
+        <v>9.002942658509999</v>
       </c>
       <c r="R8">
-        <v>200.656023518965</v>
+        <v>81.02648392659</v>
       </c>
       <c r="S8">
-        <v>0.2614545779960452</v>
+        <v>0.249409661415423</v>
       </c>
       <c r="T8">
-        <v>0.2614545779960451</v>
+        <v>0.249409661415423</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>30.53490766666667</v>
+        <v>18.820355</v>
       </c>
       <c r="H9">
-        <v>91.60472300000001</v>
+        <v>56.461065</v>
       </c>
       <c r="I9">
-        <v>0.3518395099377208</v>
+        <v>0.3817371069000054</v>
       </c>
       <c r="J9">
-        <v>0.3518395099377208</v>
+        <v>0.3817371069000054</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -998,22 +998,22 @@
         <v>0.466686</v>
       </c>
       <c r="O9">
-        <v>0.1583222964647644</v>
+        <v>0.2124690813384451</v>
       </c>
       <c r="P9">
-        <v>0.1583222964647643</v>
+        <v>0.2124690813384451</v>
       </c>
       <c r="Q9">
-        <v>4.750071306442001</v>
+        <v>2.92773206451</v>
       </c>
       <c r="R9">
-        <v>42.750641757978</v>
+        <v>26.34958858059</v>
       </c>
       <c r="S9">
-        <v>0.05570403920037725</v>
+        <v>0.08110733241583998</v>
       </c>
       <c r="T9">
-        <v>0.05570403920037723</v>
+        <v>0.08110733241583996</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>30.53490766666667</v>
+        <v>18.820355</v>
       </c>
       <c r="H10">
-        <v>91.60472300000001</v>
+        <v>56.461065</v>
       </c>
       <c r="I10">
-        <v>0.3518395099377208</v>
+        <v>0.3817371069000054</v>
       </c>
       <c r="J10">
-        <v>0.3518395099377208</v>
+        <v>0.3817371069000054</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1054,28 +1054,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.09685166666666667</v>
+        <v>0.09823900000000001</v>
       </c>
       <c r="N10">
-        <v>0.290555</v>
+        <v>0.294717</v>
       </c>
       <c r="O10">
-        <v>0.09857020534003508</v>
+        <v>0.134176406073511</v>
       </c>
       <c r="P10">
-        <v>0.09857020534003506</v>
+        <v>0.1341764060735109</v>
       </c>
       <c r="Q10">
-        <v>2.957356699029445</v>
+        <v>1.848892854845</v>
       </c>
       <c r="R10">
-        <v>26.616210291265</v>
+        <v>16.640035693605</v>
       </c>
       <c r="S10">
-        <v>0.03468089274129846</v>
+        <v>0.05122011306874239</v>
       </c>
       <c r="T10">
-        <v>0.03468089274129844</v>
+        <v>0.05122011306874238</v>
       </c>
     </row>
   </sheetData>
